--- a/data/CS1/Market Data/CS1_market_data_2020.xlsx
+++ b/data/CS1/Market Data/CS1_market_data_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-no_esso-v2\data\CS1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F6D1FD-510C-480B-AE46-8EAF1F5A837C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1CB17A-075C-4262-BB1A-CC29EBDE57D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3540" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25770" yWindow="5760" windowWidth="21600" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0.01</v>
+            <v>0.02</v>
           </cell>
         </row>
       </sheetData>
@@ -1349,7 +1349,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
